--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://shapecorp-my.sharepoint.com/personal/pivovarm_shapecorp_com/Documents/Desktop/EXCEL/WEB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="288" documentId="13_ncr:1_{34DFBD8E-9DC7-4A5F-8B07-C9F4187D7F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53AAFCA3-D937-4913-9AAB-6C4FFEB27B46}"/>
+  <xr:revisionPtr revIDLastSave="290" documentId="13_ncr:1_{34DFBD8E-9DC7-4A5F-8B07-C9F4187D7F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1DE885A-BE6C-4F6C-A6D7-D74A30F01E4F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16395" windowWidth="29040" windowHeight="15720" tabRatio="801" xr2:uid="{BE79EFCA-29AE-4B18-9E1C-DB1EC0CA2F59}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="801" xr2:uid="{BE79EFCA-29AE-4B18-9E1C-DB1EC0CA2F59}"/>
   </bookViews>
   <sheets>
     <sheet name="ROZJEZD" sheetId="2" r:id="rId1"/>
@@ -2000,13 +2000,13 @@
     <t>Pak chov na 257285(BCB LLC)</t>
   </si>
   <si>
-    <t>PZ1D</t>
-  </si>
-  <si>
-    <t>Horak</t>
-  </si>
-  <si>
     <t>Beamy po plazme</t>
+  </si>
+  <si>
+    <t>Beamy dochazí</t>
+  </si>
+  <si>
+    <t>Horak na W63</t>
   </si>
 </sst>
 </file>
@@ -3533,6 +3533,45 @@
     <xf numFmtId="0" fontId="36" fillId="5" borderId="45" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3596,44 +3635,14 @@
     <xf numFmtId="165" fontId="30" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3642,15 +3651,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -19060,7 +19060,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="36.6" outlineLevelRow="1"/>
@@ -19087,24 +19087,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.2" customHeight="1">
-      <c r="A1" s="196">
+      <c r="A1" s="209">
         <f ca="1">NOW()</f>
-        <v>45454.750400810182</v>
-      </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="200">
+        <v>45454.853086342591</v>
+      </c>
+      <c r="B1" s="210"/>
+      <c r="C1" s="213">
         <f ca="1">NOW()</f>
-        <v>45454.750400810182</v>
-      </c>
-      <c r="D1" s="201"/>
-      <c r="E1" s="206" t="s">
+        <v>45454.853086342591</v>
+      </c>
+      <c r="D1" s="214"/>
+      <c r="E1" s="219" t="s">
         <v>397</v>
       </c>
-      <c r="F1" s="207"/>
-      <c r="G1" s="206" t="s">
+      <c r="F1" s="220"/>
+      <c r="G1" s="219" t="s">
         <v>399</v>
       </c>
-      <c r="H1" s="212"/>
+      <c r="H1" s="225"/>
       <c r="I1" s="129" t="s">
         <v>400</v>
       </c>
@@ -19115,18 +19115,18 @@
       <c r="K1" s="123" t="s">
         <v>393</v>
       </c>
-      <c r="M1" s="192" t="s">
+      <c r="M1" s="205" t="s">
         <v>406</v>
       </c>
-      <c r="N1" s="193"/>
+      <c r="N1" s="206"/>
     </row>
     <row r="2" spans="1:14" ht="46.2" customHeight="1">
-      <c r="A2" s="198"/>
-      <c r="B2" s="199"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="209"/>
+      <c r="A2" s="211"/>
+      <c r="B2" s="212"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="222"/>
       <c r="G2" s="121"/>
       <c r="H2" s="122"/>
       <c r="I2" s="128" t="s">
@@ -19136,16 +19136,16 @@
         <v>WELD051</v>
       </c>
       <c r="K2" s="124"/>
-      <c r="M2" s="194"/>
-      <c r="N2" s="195"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="208"/>
     </row>
     <row r="3" spans="1:14" ht="46.2" customHeight="1">
-      <c r="A3" s="198"/>
-      <c r="B3" s="199"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="209"/>
+      <c r="A3" s="211"/>
+      <c r="B3" s="212"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="222"/>
       <c r="G3" s="121"/>
       <c r="H3" s="122"/>
       <c r="I3" s="128" t="s">
@@ -19155,16 +19155,16 @@
         <v>WELD046</v>
       </c>
       <c r="K3" s="124"/>
-      <c r="M3" s="194"/>
-      <c r="N3" s="195"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="208"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="198"/>
-      <c r="B4" s="199"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="203"/>
-      <c r="E4" s="208"/>
-      <c r="F4" s="209"/>
+      <c r="A4" s="211"/>
+      <c r="B4" s="212"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="216"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="222"/>
       <c r="G4" s="120"/>
       <c r="H4" s="96"/>
       <c r="I4" s="128" t="s">
@@ -19185,13 +19185,13 @@
         <f ca="1">WEEKNUM(C1)</f>
         <v>24</v>
       </c>
-      <c r="C5" s="204">
+      <c r="C5" s="217">
         <f ca="1">NOW()</f>
-        <v>45454.750400810182</v>
-      </c>
-      <c r="D5" s="205"/>
-      <c r="E5" s="210"/>
-      <c r="F5" s="211"/>
+        <v>45454.853086342591</v>
+      </c>
+      <c r="D5" s="218"/>
+      <c r="E5" s="223"/>
+      <c r="F5" s="224"/>
       <c r="G5" s="116"/>
       <c r="H5" s="118"/>
       <c r="I5" s="118"/>
@@ -19226,10 +19226,10 @@
       <c r="K6" s="125"/>
     </row>
     <row r="7" spans="1:14" ht="74.400000000000006" thickTop="1" thickBot="1">
-      <c r="A7" s="216" t="s">
+      <c r="A7" s="195" t="s">
         <v>368</v>
       </c>
-      <c r="B7" s="219" t="s">
+      <c r="B7" s="198" t="s">
         <v>252</v>
       </c>
       <c r="C7" s="190" t="s">
@@ -19272,8 +19272,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" s="167" customFormat="1" ht="74.400000000000006" outlineLevel="1" thickTop="1" thickBot="1">
-      <c r="A8" s="217"/>
-      <c r="B8" s="220"/>
+      <c r="A8" s="196"/>
+      <c r="B8" s="199"/>
       <c r="C8" s="191" t="s">
         <v>242</v>
       </c>
@@ -19313,8 +19313,8 @@
       </c>
     </row>
     <row r="9" spans="1:14" s="167" customFormat="1" ht="74.400000000000006" thickTop="1" thickBot="1">
-      <c r="A9" s="217"/>
-      <c r="B9" s="220"/>
+      <c r="A9" s="196"/>
+      <c r="B9" s="199"/>
       <c r="C9" s="191" t="s">
         <v>241</v>
       </c>
@@ -19356,8 +19356,8 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="74.400000000000006" thickTop="1" thickBot="1">
-      <c r="A10" s="217"/>
-      <c r="B10" s="221"/>
+      <c r="A10" s="196"/>
+      <c r="B10" s="200"/>
       <c r="C10" s="191" t="s">
         <v>278</v>
       </c>
@@ -19370,7 +19370,7 @@
         <v>P33B MC FRT</v>
       </c>
       <c r="F10" s="187" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G10" s="188" cm="1">
         <f t="array" ref="G10:I10">_xlfn.XLOOKUP(D10,[1]PlanVyroby!$E:$E,[1]PlanVyroby!$T:$V)</f>
@@ -19399,7 +19399,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="37.799999999999997" thickTop="1" thickBot="1">
-      <c r="A11" s="217"/>
+      <c r="A11" s="196"/>
       <c r="B11" s="59"/>
       <c r="C11" s="49"/>
       <c r="D11" s="49"/>
@@ -19421,8 +19421,8 @@
       <c r="N11" s="153"/>
     </row>
     <row r="12" spans="1:14" ht="74.400000000000006" thickTop="1" thickBot="1">
-      <c r="A12" s="217"/>
-      <c r="B12" s="219" t="s">
+      <c r="A12" s="196"/>
+      <c r="B12" s="198" t="s">
         <v>256</v>
       </c>
       <c r="C12" s="45" t="s">
@@ -19464,8 +19464,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="74.400000000000006" thickTop="1" thickBot="1">
-      <c r="A13" s="217"/>
-      <c r="B13" s="220"/>
+      <c r="A13" s="196"/>
+      <c r="B13" s="199"/>
       <c r="C13" s="45" t="s">
         <v>216</v>
       </c>
@@ -19478,7 +19478,7 @@
         <v>P33B RR RH</v>
       </c>
       <c r="F13" s="73" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G13" s="67" cm="1">
         <f t="array" ref="G13:I13">_xlfn.XLOOKUP(D13,[1]PlanVyroby!$E:$E,[1]PlanVyroby!$T:$V)</f>
@@ -19507,8 +19507,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="74.400000000000006" thickTop="1" thickBot="1">
-      <c r="A14" s="217"/>
-      <c r="B14" s="220"/>
+      <c r="A14" s="196"/>
+      <c r="B14" s="199"/>
       <c r="C14" s="45" t="s">
         <v>255</v>
       </c>
@@ -19521,7 +19521,7 @@
         <v xml:space="preserve">P33B FRT LWR </v>
       </c>
       <c r="F14" s="43" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G14" s="63" cm="1">
         <f t="array" ref="G14:I14">_xlfn.XLOOKUP(D14,[1]PlanVyroby!$E:$E,[1]PlanVyroby!$T:$V)</f>
@@ -19545,8 +19545,8 @@
       <c r="N14" s="153"/>
     </row>
     <row r="15" spans="1:14" ht="74.400000000000006" thickTop="1" thickBot="1">
-      <c r="A15" s="217"/>
-      <c r="B15" s="220"/>
+      <c r="A15" s="196"/>
+      <c r="B15" s="199"/>
       <c r="C15" s="45" t="s">
         <v>222</v>
       </c>
@@ -19586,8 +19586,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="74.400000000000006" thickTop="1" thickBot="1">
-      <c r="A16" s="217"/>
-      <c r="B16" s="221"/>
+      <c r="A16" s="196"/>
+      <c r="B16" s="200"/>
       <c r="C16" s="45" t="s">
         <v>227</v>
       </c>
@@ -19627,16 +19627,16 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="37.200000000000003" thickTop="1">
-      <c r="A17" s="217"/>
-      <c r="B17" s="223"/>
-      <c r="C17" s="224"/>
-      <c r="D17" s="224"/>
-      <c r="E17" s="224"/>
-      <c r="F17" s="224"/>
-      <c r="G17" s="224"/>
-      <c r="H17" s="224"/>
-      <c r="I17" s="224"/>
-      <c r="J17" s="225"/>
+      <c r="A17" s="196"/>
+      <c r="B17" s="202"/>
+      <c r="C17" s="203"/>
+      <c r="D17" s="203"/>
+      <c r="E17" s="203"/>
+      <c r="F17" s="203"/>
+      <c r="G17" s="203"/>
+      <c r="H17" s="203"/>
+      <c r="I17" s="203"/>
+      <c r="J17" s="204"/>
       <c r="K17" s="126">
         <f>_xlfn.XLOOKUP(ROZJEZD!C17,Mach002!A:A,Mach002!G:G)</f>
         <v>0</v>
@@ -19645,8 +19645,8 @@
       <c r="N17" s="153"/>
     </row>
     <row r="18" spans="1:14" ht="73.2">
-      <c r="A18" s="217"/>
-      <c r="B18" s="219" t="s">
+      <c r="A18" s="196"/>
+      <c r="B18" s="198" t="s">
         <v>257</v>
       </c>
       <c r="C18" s="57" t="s">
@@ -19680,8 +19680,8 @@
       <c r="N18" s="153"/>
     </row>
     <row r="19" spans="1:14" ht="73.2">
-      <c r="A19" s="217"/>
-      <c r="B19" s="220"/>
+      <c r="A19" s="196"/>
+      <c r="B19" s="199"/>
       <c r="C19" s="57" t="s">
         <v>231</v>
       </c>
@@ -19713,8 +19713,8 @@
       <c r="N19" s="153"/>
     </row>
     <row r="20" spans="1:14" ht="73.8" thickBot="1">
-      <c r="A20" s="217"/>
-      <c r="B20" s="220"/>
+      <c r="A20" s="196"/>
+      <c r="B20" s="199"/>
       <c r="C20" s="57" t="s">
         <v>199</v>
       </c>
@@ -19746,8 +19746,8 @@
       <c r="N20" s="153"/>
     </row>
     <row r="21" spans="1:14" ht="74.400000000000006" thickTop="1" thickBot="1">
-      <c r="A21" s="217"/>
-      <c r="B21" s="220"/>
+      <c r="A21" s="196"/>
+      <c r="B21" s="199"/>
       <c r="C21" s="57" t="s">
         <v>410</v>
       </c>
@@ -19783,8 +19783,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="74.400000000000006" thickTop="1" thickBot="1">
-      <c r="A22" s="217"/>
-      <c r="B22" s="220"/>
+      <c r="A22" s="196"/>
+      <c r="B22" s="199"/>
       <c r="C22" s="57" t="s">
         <v>235</v>
       </c>
@@ -19812,8 +19812,8 @@
       <c r="N22" s="153"/>
     </row>
     <row r="23" spans="1:14" ht="74.400000000000006" thickTop="1" thickBot="1">
-      <c r="A23" s="217"/>
-      <c r="B23" s="220"/>
+      <c r="A23" s="196"/>
+      <c r="B23" s="199"/>
       <c r="C23" s="57" t="s">
         <v>244</v>
       </c>
@@ -19853,8 +19853,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="74.400000000000006" thickTop="1" thickBot="1">
-      <c r="A24" s="218"/>
-      <c r="B24" s="222"/>
+      <c r="A24" s="197"/>
+      <c r="B24" s="201"/>
       <c r="C24" s="57" t="s">
         <v>246</v>
       </c>
@@ -19899,16 +19899,16 @@
       <c r="B25" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="C25" s="213" t="s">
+      <c r="C25" s="192" t="s">
         <v>607</v>
       </c>
-      <c r="D25" s="214"/>
-      <c r="E25" s="214"/>
-      <c r="F25" s="214"/>
-      <c r="G25" s="214"/>
-      <c r="H25" s="214"/>
-      <c r="I25" s="214"/>
-      <c r="J25" s="215"/>
+      <c r="D25" s="193"/>
+      <c r="E25" s="193"/>
+      <c r="F25" s="193"/>
+      <c r="G25" s="193"/>
+      <c r="H25" s="193"/>
+      <c r="I25" s="193"/>
+      <c r="J25" s="194"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="109"/>
@@ -19928,18 +19928,18 @@
     <sortCondition ref="C18:C21"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="M1:N3"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E1:F5"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="A7:A24"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="B18:B24"/>
     <mergeCell ref="B17:J17"/>
-    <mergeCell ref="M1:N3"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E1:F5"/>
-    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="J10">
@@ -22044,7 +22044,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="229" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10">
@@ -22056,7 +22056,7 @@
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A2" s="227" t="s">
+      <c r="A2" s="230" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="13">
@@ -22068,7 +22068,7 @@
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A3" s="227" t="s">
+      <c r="A3" s="230" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="16">
@@ -22080,7 +22080,7 @@
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A4" s="227" t="s">
+      <c r="A4" s="230" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="16">
@@ -22092,7 +22092,7 @@
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" ht="14.4" customHeight="1">
-      <c r="A5" s="227"/>
+      <c r="A5" s="230"/>
       <c r="B5" s="31">
         <v>257291</v>
       </c>
@@ -22102,7 +22102,7 @@
       <c r="D5" s="33"/>
     </row>
     <row r="6" spans="1:4" ht="14.4" customHeight="1" thickBot="1">
-      <c r="A6" s="228" t="s">
+      <c r="A6" s="231" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="18">
@@ -22120,7 +22120,7 @@
     </row>
     <row r="8" spans="1:4" ht="21.6" customHeight="1" thickBot="1"/>
     <row r="9" spans="1:4" ht="21.6" customHeight="1">
-      <c r="A9" s="226" t="s">
+      <c r="A9" s="229" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="23" t="s">
@@ -22130,7 +22130,7 @@
       <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" ht="21.6" customHeight="1">
-      <c r="A10" s="227"/>
+      <c r="A10" s="230"/>
       <c r="B10" s="13" t="s">
         <v>3</v>
       </c>
@@ -22138,7 +22138,7 @@
       <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:4" ht="21.6" customHeight="1">
-      <c r="A11" s="227"/>
+      <c r="A11" s="230"/>
       <c r="B11" s="16" t="s">
         <v>4</v>
       </c>
@@ -22146,7 +22146,7 @@
       <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:4" ht="21.6" customHeight="1">
-      <c r="A12" s="227"/>
+      <c r="A12" s="230"/>
       <c r="B12" s="16" t="s">
         <v>5</v>
       </c>
@@ -22154,7 +22154,7 @@
       <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4" ht="21.6" customHeight="1">
-      <c r="A13" s="227"/>
+      <c r="A13" s="230"/>
       <c r="B13" s="16" t="s">
         <v>6</v>
       </c>
@@ -22162,7 +22162,7 @@
       <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="227"/>
+      <c r="A14" s="230"/>
       <c r="B14" s="16" t="s">
         <v>7</v>
       </c>
@@ -22170,7 +22170,7 @@
       <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="227"/>
+      <c r="A15" s="230"/>
       <c r="B15" s="16" t="s">
         <v>8</v>
       </c>
@@ -22178,7 +22178,7 @@
       <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="227"/>
+      <c r="A16" s="230"/>
       <c r="B16" s="16" t="s">
         <v>9</v>
       </c>
@@ -22186,7 +22186,7 @@
       <c r="D16" s="15"/>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1">
-      <c r="A17" s="228"/>
+      <c r="A17" s="231"/>
       <c r="B17" s="18" t="s">
         <v>10</v>
       </c>
@@ -22195,7 +22195,7 @@
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1"/>
     <row r="19" spans="1:4">
-      <c r="A19" s="226" t="s">
+      <c r="A19" s="229" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="10">
@@ -22209,7 +22209,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="227"/>
+      <c r="A20" s="230"/>
       <c r="B20" s="13">
         <v>217515</v>
       </c>
@@ -22221,7 +22221,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="227"/>
+      <c r="A21" s="230"/>
       <c r="B21" s="16">
         <v>224947</v>
       </c>
@@ -22233,7 +22233,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="227"/>
+      <c r="A22" s="230"/>
       <c r="B22" s="16" t="s">
         <v>18</v>
       </c>
@@ -22243,13 +22243,13 @@
       <c r="D22" s="15"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="227"/>
+      <c r="A23" s="230"/>
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
       <c r="D23" s="15"/>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1">
-      <c r="A24" s="228"/>
+      <c r="A24" s="231"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
       <c r="D24" s="20"/>
@@ -22364,7 +22364,7 @@
     </row>
     <row r="40" spans="1:4" ht="21.6" hidden="1" customHeight="1"/>
     <row r="41" spans="1:4">
-      <c r="A41" s="226" t="s">
+      <c r="A41" s="229" t="s">
         <v>32</v>
       </c>
       <c r="B41" s="23" t="s">
@@ -22378,7 +22378,7 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="227"/>
+      <c r="A42" s="230"/>
       <c r="B42" s="16" t="s">
         <v>36</v>
       </c>
@@ -22390,7 +22390,7 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="227"/>
+      <c r="A43" s="230"/>
       <c r="B43" s="16">
         <v>239450</v>
       </c>
@@ -22402,7 +22402,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="227"/>
+      <c r="A44" s="230"/>
       <c r="B44" s="16">
         <v>239451</v>
       </c>
@@ -22414,7 +22414,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="227"/>
+      <c r="A45" s="230"/>
       <c r="B45" s="16">
         <v>240829</v>
       </c>
@@ -22424,7 +22424,7 @@
       <c r="D45" s="15"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="227"/>
+      <c r="A46" s="230"/>
       <c r="B46" s="16">
         <v>250950</v>
       </c>
@@ -22434,7 +22434,7 @@
       <c r="D46" s="15"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="227"/>
+      <c r="A47" s="230"/>
       <c r="B47" s="16">
         <v>250951</v>
       </c>
@@ -22444,7 +22444,7 @@
       <c r="D47" s="15"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="227"/>
+      <c r="A48" s="230"/>
       <c r="B48" s="16">
         <v>251570</v>
       </c>
@@ -22454,7 +22454,7 @@
       <c r="D48" s="15"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="227"/>
+      <c r="A49" s="230"/>
       <c r="B49" s="16">
         <v>251571</v>
       </c>
@@ -22464,7 +22464,7 @@
       <c r="D49" s="15"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="227"/>
+      <c r="A50" s="230"/>
       <c r="B50" s="16">
         <v>257766</v>
       </c>
@@ -22474,7 +22474,7 @@
       <c r="D50" s="15"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="227"/>
+      <c r="A51" s="230"/>
       <c r="B51" s="16">
         <v>251814</v>
       </c>
@@ -22484,7 +22484,7 @@
       <c r="D51" s="15"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="227"/>
+      <c r="A52" s="230"/>
       <c r="B52" s="16">
         <v>252199</v>
       </c>
@@ -22494,7 +22494,7 @@
       <c r="D52" s="15"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="227"/>
+      <c r="A53" s="230"/>
       <c r="B53" s="16">
         <v>251869</v>
       </c>
@@ -22504,7 +22504,7 @@
       <c r="D53" s="15"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="227"/>
+      <c r="A54" s="230"/>
       <c r="B54" s="16" t="s">
         <v>50</v>
       </c>
@@ -22514,7 +22514,7 @@
       <c r="D54" s="15"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="227"/>
+      <c r="A55" s="230"/>
       <c r="B55" s="16">
         <v>275656</v>
       </c>
@@ -22524,7 +22524,7 @@
       <c r="D55" s="15"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="227"/>
+      <c r="A56" s="230"/>
       <c r="B56" s="16">
         <v>275655</v>
       </c>
@@ -22534,13 +22534,13 @@
       <c r="D56" s="15"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="227"/>
+      <c r="A57" s="230"/>
       <c r="B57" s="16"/>
       <c r="C57" s="17"/>
       <c r="D57" s="15"/>
     </row>
     <row r="58" spans="1:4" ht="15" thickBot="1">
-      <c r="A58" s="228"/>
+      <c r="A58" s="231"/>
       <c r="B58" s="18"/>
       <c r="C58" s="19"/>
       <c r="D58" s="20"/>
@@ -22549,7 +22549,7 @@
       <c r="A59" s="21"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="226" t="s">
+      <c r="A60" s="229" t="s">
         <v>54</v>
       </c>
       <c r="B60" s="23" t="s">
@@ -22561,7 +22561,7 @@
       <c r="D60" s="12"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="227"/>
+      <c r="A61" s="230"/>
       <c r="B61" s="16" t="s">
         <v>57</v>
       </c>
@@ -22571,7 +22571,7 @@
       <c r="D61" s="15"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="227"/>
+      <c r="A62" s="230"/>
       <c r="B62" s="16" t="s">
         <v>59</v>
       </c>
@@ -22581,7 +22581,7 @@
       <c r="D62" s="15"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="227"/>
+      <c r="A63" s="230"/>
       <c r="B63" s="16" t="s">
         <v>61</v>
       </c>
@@ -22591,7 +22591,7 @@
       <c r="D63" s="15"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="227"/>
+      <c r="A64" s="230"/>
       <c r="B64" s="16" t="s">
         <v>63</v>
       </c>
@@ -22601,20 +22601,20 @@
       <c r="D64" s="15"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="227"/>
+      <c r="A65" s="230"/>
       <c r="B65" s="16"/>
       <c r="C65" s="17"/>
       <c r="D65" s="15"/>
     </row>
     <row r="66" spans="1:4" ht="15" thickBot="1">
-      <c r="A66" s="228"/>
+      <c r="A66" s="231"/>
       <c r="B66" s="18"/>
       <c r="C66" s="19"/>
       <c r="D66" s="20"/>
     </row>
     <row r="67" spans="1:4" ht="15" thickBot="1"/>
     <row r="68" spans="1:4">
-      <c r="A68" s="226" t="s">
+      <c r="A68" s="229" t="s">
         <v>65</v>
       </c>
       <c r="B68" s="23">
@@ -22626,7 +22626,7 @@
       <c r="D68" s="12"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="227"/>
+      <c r="A69" s="230"/>
       <c r="B69" s="16">
         <v>236533</v>
       </c>
@@ -22636,7 +22636,7 @@
       <c r="D69" s="15"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="227"/>
+      <c r="A70" s="230"/>
       <c r="B70" s="16">
         <v>249050</v>
       </c>
@@ -22646,7 +22646,7 @@
       <c r="D70" s="15"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="227"/>
+      <c r="A71" s="230"/>
       <c r="B71" s="16">
         <v>247800</v>
       </c>
@@ -22656,7 +22656,7 @@
       <c r="D71" s="15"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="227"/>
+      <c r="A72" s="230"/>
       <c r="B72" s="16">
         <v>274706</v>
       </c>
@@ -22666,7 +22666,7 @@
       <c r="D72" s="15"/>
     </row>
     <row r="73" spans="1:4" ht="15" thickBot="1">
-      <c r="A73" s="228"/>
+      <c r="A73" s="231"/>
       <c r="B73" s="18"/>
       <c r="C73" s="19"/>
       <c r="D73" s="20"/>
@@ -22675,7 +22675,7 @@
       <c r="A74" s="25"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="226" t="s">
+      <c r="A75" s="229" t="s">
         <v>70</v>
       </c>
       <c r="B75" s="23" t="s">
@@ -22687,7 +22687,7 @@
       <c r="D75" s="12"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="227"/>
+      <c r="A76" s="230"/>
       <c r="B76" s="16" t="s">
         <v>73</v>
       </c>
@@ -22697,7 +22697,7 @@
       <c r="D76" s="15"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="227"/>
+      <c r="A77" s="230"/>
       <c r="B77" s="16" t="s">
         <v>75</v>
       </c>
@@ -22707,7 +22707,7 @@
       <c r="D77" s="15"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="227"/>
+      <c r="A78" s="230"/>
       <c r="B78" s="16" t="s">
         <v>77</v>
       </c>
@@ -22717,7 +22717,7 @@
       <c r="D78" s="15"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="227"/>
+      <c r="A79" s="230"/>
       <c r="B79" s="16" t="s">
         <v>79</v>
       </c>
@@ -22727,20 +22727,20 @@
       <c r="D79" s="15"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="227"/>
+      <c r="A80" s="230"/>
       <c r="B80" s="16"/>
       <c r="C80" s="17"/>
       <c r="D80" s="15"/>
     </row>
     <row r="81" spans="1:4" ht="15" thickBot="1">
-      <c r="A81" s="228"/>
+      <c r="A81" s="231"/>
       <c r="B81" s="18"/>
       <c r="C81" s="19"/>
       <c r="D81" s="20"/>
     </row>
     <row r="82" spans="1:4" ht="15" thickBot="1"/>
     <row r="83" spans="1:4">
-      <c r="A83" s="226" t="s">
+      <c r="A83" s="229" t="s">
         <v>81</v>
       </c>
       <c r="B83" s="23">
@@ -22752,7 +22752,7 @@
       <c r="D83" s="12"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="227"/>
+      <c r="A84" s="230"/>
       <c r="B84" s="16" t="s">
         <v>83</v>
       </c>
@@ -22762,20 +22762,20 @@
       <c r="D84" s="15"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="227"/>
+      <c r="A85" s="230"/>
       <c r="B85" s="16"/>
       <c r="C85" s="17"/>
       <c r="D85" s="15"/>
     </row>
     <row r="86" spans="1:4" ht="15" thickBot="1">
-      <c r="A86" s="228"/>
+      <c r="A86" s="231"/>
       <c r="B86" s="18"/>
       <c r="C86" s="19"/>
       <c r="D86" s="20"/>
     </row>
     <row r="87" spans="1:4" ht="15" thickBot="1"/>
     <row r="88" spans="1:4">
-      <c r="A88" s="226" t="s">
+      <c r="A88" s="229" t="s">
         <v>286</v>
       </c>
       <c r="B88" s="23">
@@ -22787,7 +22787,7 @@
       <c r="D88" s="12"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="227"/>
+      <c r="A89" s="230"/>
       <c r="B89" s="16">
         <v>275442</v>
       </c>
@@ -22797,20 +22797,20 @@
       <c r="D89" s="15"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="227"/>
+      <c r="A90" s="230"/>
       <c r="B90" s="16"/>
       <c r="C90" s="17"/>
       <c r="D90" s="15"/>
     </row>
     <row r="91" spans="1:4" ht="15" thickBot="1">
-      <c r="A91" s="228"/>
+      <c r="A91" s="231"/>
       <c r="B91" s="18"/>
       <c r="C91" s="19"/>
       <c r="D91" s="20"/>
     </row>
     <row r="92" spans="1:4" ht="15" thickBot="1"/>
     <row r="93" spans="1:4">
-      <c r="A93" s="226" t="s">
+      <c r="A93" s="229" t="s">
         <v>247</v>
       </c>
       <c r="B93" s="23">
@@ -22822,26 +22822,26 @@
       <c r="D93" s="12"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="227"/>
+      <c r="A94" s="230"/>
       <c r="B94" s="16"/>
       <c r="C94" s="17"/>
       <c r="D94" s="15"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="227"/>
+      <c r="A95" s="230"/>
       <c r="B95" s="16"/>
       <c r="C95" s="17"/>
       <c r="D95" s="15"/>
     </row>
     <row r="96" spans="1:4" ht="15" thickBot="1">
-      <c r="A96" s="228"/>
+      <c r="A96" s="231"/>
       <c r="B96" s="18"/>
       <c r="C96" s="19"/>
       <c r="D96" s="20"/>
     </row>
     <row r="97" spans="1:9" ht="15" thickBot="1"/>
     <row r="98" spans="1:9">
-      <c r="A98" s="226" t="s">
+      <c r="A98" s="229" t="s">
         <v>248</v>
       </c>
       <c r="B98" s="23">
@@ -22853,7 +22853,7 @@
       <c r="D98" s="12"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="227"/>
+      <c r="A99" s="230"/>
       <c r="B99" s="16">
         <v>273756</v>
       </c>
@@ -22863,7 +22863,7 @@
       <c r="D99" s="15"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="227"/>
+      <c r="A100" s="230"/>
       <c r="B100" s="16">
         <v>273757</v>
       </c>
@@ -22873,7 +22873,7 @@
       <c r="D100" s="15"/>
     </row>
     <row r="101" spans="1:9" ht="15" thickBot="1">
-      <c r="A101" s="228"/>
+      <c r="A101" s="231"/>
       <c r="B101" s="18"/>
       <c r="C101" s="19"/>
       <c r="D101" s="20"/>
@@ -22889,7 +22889,7 @@
       <c r="I102" s="4"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="226" t="s">
+      <c r="A103" s="229" t="s">
         <v>289</v>
       </c>
       <c r="B103" s="23">
@@ -22901,19 +22901,19 @@
       <c r="D103" s="12"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="227"/>
+      <c r="A104" s="230"/>
       <c r="B104" s="16"/>
       <c r="C104" s="17"/>
       <c r="D104" s="15"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="227"/>
+      <c r="A105" s="230"/>
       <c r="B105" s="16"/>
       <c r="C105" s="17"/>
       <c r="D105" s="15"/>
     </row>
     <row r="106" spans="1:9" ht="15" thickBot="1">
-      <c r="A106" s="228"/>
+      <c r="A106" s="231"/>
       <c r="B106" s="18"/>
       <c r="C106" s="19"/>
       <c r="D106" s="20"/>
@@ -22922,7 +22922,7 @@
       <c r="A107" s="9"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="226" t="s">
+      <c r="A108" s="229" t="s">
         <v>90</v>
       </c>
       <c r="B108" s="23">
@@ -22936,7 +22936,7 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="28.8">
-      <c r="A109" s="227"/>
+      <c r="A109" s="230"/>
       <c r="B109" s="16">
         <v>253843</v>
       </c>
@@ -22948,7 +22948,7 @@
       </c>
     </row>
     <row r="110" spans="1:9" ht="28.8">
-      <c r="A110" s="227"/>
+      <c r="A110" s="230"/>
       <c r="B110" s="16">
         <v>253844</v>
       </c>
@@ -22960,7 +22960,7 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="227"/>
+      <c r="A111" s="230"/>
       <c r="B111" s="16">
         <v>258124</v>
       </c>
@@ -22972,7 +22972,7 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="227"/>
+      <c r="A112" s="230"/>
       <c r="B112" s="16">
         <v>258121</v>
       </c>
@@ -22984,7 +22984,7 @@
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="227"/>
+      <c r="A113" s="230"/>
       <c r="B113" s="16">
         <v>258119</v>
       </c>
@@ -22996,13 +22996,13 @@
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="227"/>
+      <c r="A114" s="230"/>
       <c r="B114" s="16"/>
       <c r="C114" s="17"/>
       <c r="D114" s="15"/>
     </row>
     <row r="115" spans="1:9" ht="15" thickBot="1">
-      <c r="A115" s="228"/>
+      <c r="A115" s="231"/>
       <c r="B115" s="18"/>
       <c r="C115" s="19"/>
       <c r="D115" s="20"/>
@@ -23404,7 +23404,7 @@
     </row>
     <row r="154" spans="1:4" ht="15" thickBot="1"/>
     <row r="155" spans="1:4">
-      <c r="A155" s="226" t="s">
+      <c r="A155" s="229" t="s">
         <v>115</v>
       </c>
       <c r="B155" s="23">
@@ -23416,7 +23416,7 @@
       <c r="D155" s="12"/>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="227"/>
+      <c r="A156" s="230"/>
       <c r="B156" s="16">
         <v>802062</v>
       </c>
@@ -23426,7 +23426,7 @@
       <c r="D156" s="15"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="227"/>
+      <c r="A157" s="230"/>
       <c r="B157" s="1">
         <v>802090</v>
       </c>
@@ -23436,7 +23436,7 @@
       <c r="D157" s="15"/>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="227"/>
+      <c r="A158" s="230"/>
       <c r="B158" s="16">
         <v>802683</v>
       </c>
@@ -23446,7 +23446,7 @@
       <c r="D158" s="15"/>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="227"/>
+      <c r="A159" s="230"/>
       <c r="B159" s="16">
         <v>802684</v>
       </c>
@@ -23456,7 +23456,7 @@
       <c r="D159" s="15"/>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="227"/>
+      <c r="A160" s="230"/>
       <c r="B160" s="16">
         <v>251000</v>
       </c>
@@ -23466,7 +23466,7 @@
       <c r="D160" s="15"/>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="227"/>
+      <c r="A161" s="230"/>
       <c r="B161" s="16">
         <v>249714</v>
       </c>
@@ -23476,7 +23476,7 @@
       <c r="D161" s="15"/>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="227"/>
+      <c r="A162" s="230"/>
       <c r="B162" s="16">
         <v>249715</v>
       </c>
@@ -23486,13 +23486,13 @@
       <c r="D162" s="15"/>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="227"/>
+      <c r="A163" s="230"/>
       <c r="B163" s="16"/>
       <c r="C163" s="17"/>
       <c r="D163" s="15"/>
     </row>
     <row r="164" spans="1:9" ht="15" thickBot="1">
-      <c r="A164" s="228"/>
+      <c r="A164" s="231"/>
       <c r="B164" s="18"/>
       <c r="C164" s="19"/>
       <c r="D164" s="20"/>
@@ -23779,7 +23779,7 @@
     </row>
     <row r="191" spans="1:9" ht="15" hidden="1" thickBot="1"/>
     <row r="192" spans="1:9">
-      <c r="A192" s="226" t="s">
+      <c r="A192" s="229" t="s">
         <v>139</v>
       </c>
       <c r="B192" s="23">
@@ -23791,7 +23791,7 @@
       <c r="D192" s="12"/>
     </row>
     <row r="193" spans="1:4">
-      <c r="A193" s="227"/>
+      <c r="A193" s="230"/>
       <c r="B193" s="16">
         <v>217502</v>
       </c>
@@ -23801,7 +23801,7 @@
       <c r="D193" s="15"/>
     </row>
     <row r="194" spans="1:4">
-      <c r="A194" s="227"/>
+      <c r="A194" s="230"/>
       <c r="B194" s="16">
         <v>249717</v>
       </c>
@@ -23811,7 +23811,7 @@
       <c r="D194" s="15"/>
     </row>
     <row r="195" spans="1:4">
-      <c r="A195" s="227"/>
+      <c r="A195" s="230"/>
       <c r="B195" s="16">
         <v>224948</v>
       </c>
@@ -23821,13 +23821,13 @@
       <c r="D195" s="15"/>
     </row>
     <row r="196" spans="1:4">
-      <c r="A196" s="227"/>
+      <c r="A196" s="230"/>
       <c r="B196" s="16"/>
       <c r="C196" s="17"/>
       <c r="D196" s="15"/>
     </row>
     <row r="197" spans="1:4" ht="15" thickBot="1">
-      <c r="A197" s="228"/>
+      <c r="A197" s="231"/>
       <c r="B197" s="18"/>
       <c r="C197" s="19"/>
       <c r="D197" s="20"/>
@@ -23838,7 +23838,7 @@
       </c>
     </row>
     <row r="199" spans="1:4">
-      <c r="A199" s="229" t="s">
+      <c r="A199" s="226" t="s">
         <v>142</v>
       </c>
       <c r="B199" s="23">
@@ -23850,7 +23850,7 @@
       <c r="D199" s="12"/>
     </row>
     <row r="200" spans="1:4">
-      <c r="A200" s="230"/>
+      <c r="A200" s="227"/>
       <c r="B200" s="16">
         <v>219826</v>
       </c>
@@ -23860,7 +23860,7 @@
       <c r="D200" s="15"/>
     </row>
     <row r="201" spans="1:4">
-      <c r="A201" s="230"/>
+      <c r="A201" s="227"/>
       <c r="B201" s="16">
         <v>250721</v>
       </c>
@@ -23870,7 +23870,7 @@
       <c r="D201" s="15"/>
     </row>
     <row r="202" spans="1:4">
-      <c r="A202" s="230"/>
+      <c r="A202" s="227"/>
       <c r="B202" s="16">
         <v>251576</v>
       </c>
@@ -23880,7 +23880,7 @@
       <c r="D202" s="15"/>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="230"/>
+      <c r="A203" s="227"/>
       <c r="B203" s="16">
         <v>256364</v>
       </c>
@@ -23890,14 +23890,14 @@
       <c r="D203" s="15"/>
     </row>
     <row r="204" spans="1:4" ht="15" thickBot="1">
-      <c r="A204" s="231"/>
+      <c r="A204" s="228"/>
       <c r="B204" s="18"/>
       <c r="C204" s="19"/>
       <c r="D204" s="20"/>
     </row>
     <row r="205" spans="1:4" ht="15" thickBot="1"/>
     <row r="206" spans="1:4">
-      <c r="A206" s="226" t="s">
+      <c r="A206" s="229" t="s">
         <v>143</v>
       </c>
       <c r="B206" s="23">
@@ -23909,7 +23909,7 @@
       <c r="D206" s="12"/>
     </row>
     <row r="207" spans="1:4">
-      <c r="A207" s="227"/>
+      <c r="A207" s="230"/>
       <c r="B207" s="16">
         <v>223785</v>
       </c>
@@ -23919,7 +23919,7 @@
       <c r="D207" s="15"/>
     </row>
     <row r="208" spans="1:4">
-      <c r="A208" s="227"/>
+      <c r="A208" s="230"/>
       <c r="B208" s="16">
         <v>231925</v>
       </c>
@@ -23929,7 +23929,7 @@
       <c r="D208" s="15"/>
     </row>
     <row r="209" spans="1:4">
-      <c r="A209" s="227"/>
+      <c r="A209" s="230"/>
       <c r="B209" s="16">
         <v>231321</v>
       </c>
@@ -23939,7 +23939,7 @@
       <c r="D209" s="15"/>
     </row>
     <row r="210" spans="1:4">
-      <c r="A210" s="227"/>
+      <c r="A210" s="230"/>
       <c r="B210" s="16">
         <v>254633</v>
       </c>
@@ -23949,7 +23949,7 @@
       <c r="D210" s="15"/>
     </row>
     <row r="211" spans="1:4">
-      <c r="A211" s="227"/>
+      <c r="A211" s="230"/>
       <c r="B211" s="16">
         <v>254869</v>
       </c>
@@ -23959,7 +23959,7 @@
       <c r="D211" s="15"/>
     </row>
     <row r="212" spans="1:4" ht="15" thickBot="1">
-      <c r="A212" s="228"/>
+      <c r="A212" s="231"/>
       <c r="B212" s="18">
         <v>0</v>
       </c>
@@ -23968,7 +23968,7 @@
     </row>
     <row r="213" spans="1:4" ht="15" thickBot="1"/>
     <row r="214" spans="1:4">
-      <c r="A214" s="226" t="s">
+      <c r="A214" s="229" t="s">
         <v>144</v>
       </c>
       <c r="B214" s="23">
@@ -23980,7 +23980,7 @@
       <c r="D214" s="12"/>
     </row>
     <row r="215" spans="1:4">
-      <c r="A215" s="227"/>
+      <c r="A215" s="230"/>
       <c r="B215" s="16">
         <v>240526</v>
       </c>
@@ -23990,7 +23990,7 @@
       <c r="D215" s="15"/>
     </row>
     <row r="216" spans="1:4">
-      <c r="A216" s="227"/>
+      <c r="A216" s="230"/>
       <c r="B216" s="16">
         <v>252966</v>
       </c>
@@ -24000,20 +24000,20 @@
       <c r="D216" s="15"/>
     </row>
     <row r="217" spans="1:4">
-      <c r="A217" s="227"/>
+      <c r="A217" s="230"/>
       <c r="B217" s="16"/>
       <c r="C217" s="17"/>
       <c r="D217" s="15"/>
     </row>
     <row r="218" spans="1:4" ht="15" thickBot="1">
-      <c r="A218" s="228"/>
+      <c r="A218" s="231"/>
       <c r="B218" s="18"/>
       <c r="C218" s="19"/>
       <c r="D218" s="20"/>
     </row>
     <row r="219" spans="1:4" ht="15" thickBot="1"/>
     <row r="220" spans="1:4">
-      <c r="A220" s="226" t="s">
+      <c r="A220" s="229" t="s">
         <v>148</v>
       </c>
       <c r="B220" s="23" t="s">
@@ -24025,7 +24025,7 @@
       <c r="D220" s="12"/>
     </row>
     <row r="221" spans="1:4">
-      <c r="A221" s="227"/>
+      <c r="A221" s="230"/>
       <c r="B221" s="16" t="s">
         <v>150</v>
       </c>
@@ -24035,7 +24035,7 @@
       <c r="D221" s="15"/>
     </row>
     <row r="222" spans="1:4">
-      <c r="A222" s="227"/>
+      <c r="A222" s="230"/>
       <c r="B222" s="16" t="s">
         <v>152</v>
       </c>
@@ -24045,7 +24045,7 @@
       <c r="D222" s="15"/>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" s="227"/>
+      <c r="A223" s="230"/>
       <c r="B223" s="16">
         <v>231929</v>
       </c>
@@ -24055,7 +24055,7 @@
       <c r="D223" s="15"/>
     </row>
     <row r="224" spans="1:4">
-      <c r="A224" s="227"/>
+      <c r="A224" s="230"/>
       <c r="B224" s="16">
         <v>231939</v>
       </c>
@@ -24065,7 +24065,7 @@
       <c r="D224" s="15"/>
     </row>
     <row r="225" spans="1:4">
-      <c r="A225" s="227"/>
+      <c r="A225" s="230"/>
       <c r="B225" s="16">
         <v>231940</v>
       </c>
@@ -24075,20 +24075,20 @@
       <c r="D225" s="15"/>
     </row>
     <row r="226" spans="1:4">
-      <c r="A226" s="227"/>
+      <c r="A226" s="230"/>
       <c r="B226" s="16"/>
       <c r="C226" s="17"/>
       <c r="D226" s="15"/>
     </row>
     <row r="227" spans="1:4" ht="15" thickBot="1">
-      <c r="A227" s="228"/>
+      <c r="A227" s="231"/>
       <c r="B227" s="18"/>
       <c r="C227" s="19"/>
       <c r="D227" s="20"/>
     </row>
     <row r="228" spans="1:4" ht="15" thickBot="1"/>
     <row r="229" spans="1:4">
-      <c r="A229" s="226" t="s">
+      <c r="A229" s="229" t="s">
         <v>157</v>
       </c>
       <c r="B229" s="23">
@@ -24100,7 +24100,7 @@
       <c r="D229" s="12"/>
     </row>
     <row r="230" spans="1:4">
-      <c r="A230" s="227"/>
+      <c r="A230" s="230"/>
       <c r="B230" s="16">
         <v>223524</v>
       </c>
@@ -24110,7 +24110,7 @@
       <c r="D230" s="15"/>
     </row>
     <row r="231" spans="1:4">
-      <c r="A231" s="227"/>
+      <c r="A231" s="230"/>
       <c r="B231" s="16">
         <v>252568</v>
       </c>
@@ -24120,20 +24120,20 @@
       <c r="D231" s="15"/>
     </row>
     <row r="232" spans="1:4">
-      <c r="A232" s="227"/>
+      <c r="A232" s="230"/>
       <c r="B232" s="16"/>
       <c r="C232" s="17"/>
       <c r="D232" s="15"/>
     </row>
     <row r="233" spans="1:4" ht="15" thickBot="1">
-      <c r="A233" s="228"/>
+      <c r="A233" s="231"/>
       <c r="B233" s="18"/>
       <c r="C233" s="19"/>
       <c r="D233" s="20"/>
     </row>
     <row r="234" spans="1:4" ht="15" thickBot="1"/>
     <row r="235" spans="1:4">
-      <c r="A235" s="229" t="s">
+      <c r="A235" s="226" t="s">
         <v>158</v>
       </c>
       <c r="B235" s="23">
@@ -24145,7 +24145,7 @@
       <c r="D235" s="12"/>
     </row>
     <row r="236" spans="1:4">
-      <c r="A236" s="230"/>
+      <c r="A236" s="227"/>
       <c r="B236" s="16">
         <v>250953</v>
       </c>
@@ -24155,7 +24155,7 @@
       <c r="D236" s="15"/>
     </row>
     <row r="237" spans="1:4">
-      <c r="A237" s="230"/>
+      <c r="A237" s="227"/>
       <c r="B237" s="16">
         <v>251576</v>
       </c>
@@ -24165,7 +24165,7 @@
       <c r="D237" s="15"/>
     </row>
     <row r="238" spans="1:4" ht="15" thickBot="1">
-      <c r="A238" s="231"/>
+      <c r="A238" s="228"/>
       <c r="B238" s="18">
         <v>0</v>
       </c>
@@ -24174,7 +24174,7 @@
     </row>
     <row r="239" spans="1:4" ht="15" thickBot="1"/>
     <row r="240" spans="1:4">
-      <c r="A240" s="226" t="s">
+      <c r="A240" s="229" t="s">
         <v>159</v>
       </c>
       <c r="B240" s="23">
@@ -24186,7 +24186,7 @@
       <c r="D240" s="12"/>
     </row>
     <row r="241" spans="1:4">
-      <c r="A241" s="227"/>
+      <c r="A241" s="230"/>
       <c r="B241" s="16">
         <v>249739</v>
       </c>
@@ -24196,7 +24196,7 @@
       <c r="D241" s="15"/>
     </row>
     <row r="242" spans="1:4">
-      <c r="A242" s="227"/>
+      <c r="A242" s="230"/>
       <c r="B242" s="16">
         <v>250699</v>
       </c>
@@ -24206,7 +24206,7 @@
       <c r="D242" s="15"/>
     </row>
     <row r="243" spans="1:4">
-      <c r="A243" s="227"/>
+      <c r="A243" s="230"/>
       <c r="B243" s="16">
         <v>801035</v>
       </c>
@@ -24216,7 +24216,7 @@
       <c r="D243" s="15"/>
     </row>
     <row r="244" spans="1:4">
-      <c r="A244" s="227"/>
+      <c r="A244" s="230"/>
       <c r="B244" s="16">
         <v>802074</v>
       </c>
@@ -24226,7 +24226,7 @@
       <c r="D244" s="15"/>
     </row>
     <row r="245" spans="1:4">
-      <c r="A245" s="227"/>
+      <c r="A245" s="230"/>
       <c r="B245" s="16">
         <v>802470</v>
       </c>
@@ -24236,7 +24236,7 @@
       <c r="D245" s="15"/>
     </row>
     <row r="246" spans="1:4">
-      <c r="A246" s="227"/>
+      <c r="A246" s="230"/>
       <c r="B246" s="16">
         <v>0</v>
       </c>
@@ -24244,7 +24244,7 @@
       <c r="D246" s="15"/>
     </row>
     <row r="247" spans="1:4" ht="15" thickBot="1">
-      <c r="A247" s="228"/>
+      <c r="A247" s="231"/>
       <c r="B247" s="18">
         <v>0</v>
       </c>
@@ -24253,7 +24253,7 @@
     </row>
     <row r="248" spans="1:4" ht="15" thickBot="1"/>
     <row r="249" spans="1:4">
-      <c r="A249" s="226" t="s">
+      <c r="A249" s="229" t="s">
         <v>160</v>
       </c>
       <c r="B249" s="23">
@@ -24267,7 +24267,7 @@
       </c>
     </row>
     <row r="250" spans="1:4">
-      <c r="A250" s="227"/>
+      <c r="A250" s="230"/>
       <c r="B250" s="16">
         <v>236536</v>
       </c>
@@ -24279,7 +24279,7 @@
       </c>
     </row>
     <row r="251" spans="1:4">
-      <c r="A251" s="227"/>
+      <c r="A251" s="230"/>
       <c r="B251" s="16">
         <v>236537</v>
       </c>
@@ -24291,7 +24291,7 @@
       </c>
     </row>
     <row r="252" spans="1:4">
-      <c r="A252" s="227"/>
+      <c r="A252" s="230"/>
       <c r="B252" s="16">
         <v>236539</v>
       </c>
@@ -24303,7 +24303,7 @@
       </c>
     </row>
     <row r="253" spans="1:4">
-      <c r="A253" s="227"/>
+      <c r="A253" s="230"/>
       <c r="B253" s="16">
         <v>247801</v>
       </c>
@@ -24315,7 +24315,7 @@
       </c>
     </row>
     <row r="254" spans="1:4">
-      <c r="A254" s="227"/>
+      <c r="A254" s="230"/>
       <c r="B254" s="16">
         <v>247802</v>
       </c>
@@ -24327,7 +24327,7 @@
       </c>
     </row>
     <row r="255" spans="1:4">
-      <c r="A255" s="227"/>
+      <c r="A255" s="230"/>
       <c r="B255" s="16">
         <v>249052</v>
       </c>
@@ -24339,7 +24339,7 @@
       </c>
     </row>
     <row r="256" spans="1:4">
-      <c r="A256" s="227"/>
+      <c r="A256" s="230"/>
       <c r="B256" s="16">
         <v>249053</v>
       </c>
@@ -24351,7 +24351,7 @@
       </c>
     </row>
     <row r="257" spans="1:4">
-      <c r="A257" s="227"/>
+      <c r="A257" s="230"/>
       <c r="B257" s="16">
         <v>239476</v>
       </c>
@@ -24363,7 +24363,7 @@
       </c>
     </row>
     <row r="258" spans="1:4">
-      <c r="A258" s="227"/>
+      <c r="A258" s="230"/>
       <c r="B258" s="16">
         <v>258033</v>
       </c>
@@ -24375,7 +24375,7 @@
       </c>
     </row>
     <row r="259" spans="1:4">
-      <c r="A259" s="227"/>
+      <c r="A259" s="230"/>
       <c r="B259" s="16">
         <v>260672</v>
       </c>
@@ -24385,7 +24385,7 @@
       <c r="D259" s="15"/>
     </row>
     <row r="260" spans="1:4">
-      <c r="A260" s="227"/>
+      <c r="A260" s="230"/>
       <c r="B260" s="16">
         <v>260673</v>
       </c>
@@ -24395,20 +24395,20 @@
       <c r="D260" s="15"/>
     </row>
     <row r="261" spans="1:4">
-      <c r="A261" s="227"/>
+      <c r="A261" s="230"/>
       <c r="B261" s="16"/>
       <c r="C261" s="17"/>
       <c r="D261" s="15"/>
     </row>
     <row r="262" spans="1:4" ht="15" thickBot="1">
-      <c r="A262" s="228"/>
+      <c r="A262" s="231"/>
       <c r="B262" s="18"/>
       <c r="C262" s="19"/>
       <c r="D262" s="20"/>
     </row>
     <row r="263" spans="1:4" ht="15" thickBot="1"/>
     <row r="264" spans="1:4">
-      <c r="A264" s="226" t="s">
+      <c r="A264" s="229" t="s">
         <v>176</v>
       </c>
       <c r="B264" s="23">
@@ -24420,7 +24420,7 @@
       <c r="D264" s="12"/>
     </row>
     <row r="265" spans="1:4">
-      <c r="A265" s="227"/>
+      <c r="A265" s="230"/>
       <c r="B265" s="16">
         <v>240525</v>
       </c>
@@ -24430,7 +24430,7 @@
       <c r="D265" s="15"/>
     </row>
     <row r="266" spans="1:4">
-      <c r="A266" s="227"/>
+      <c r="A266" s="230"/>
       <c r="B266" s="16">
         <v>252963</v>
       </c>
@@ -24440,20 +24440,20 @@
       <c r="D266" s="15"/>
     </row>
     <row r="267" spans="1:4">
-      <c r="A267" s="227"/>
+      <c r="A267" s="230"/>
       <c r="B267" s="16"/>
       <c r="C267" s="17"/>
       <c r="D267" s="15"/>
     </row>
     <row r="268" spans="1:4" ht="15" thickBot="1">
-      <c r="A268" s="228"/>
+      <c r="A268" s="231"/>
       <c r="B268" s="18"/>
       <c r="C268" s="19"/>
       <c r="D268" s="20"/>
     </row>
     <row r="269" spans="1:4" ht="15" thickBot="1"/>
     <row r="270" spans="1:4">
-      <c r="A270" s="226" t="s">
+      <c r="A270" s="229" t="s">
         <v>180</v>
       </c>
       <c r="B270" s="23">
@@ -24467,7 +24467,7 @@
       </c>
     </row>
     <row r="271" spans="1:4">
-      <c r="A271" s="227"/>
+      <c r="A271" s="230"/>
       <c r="B271" s="16">
         <v>237307</v>
       </c>
@@ -24479,7 +24479,7 @@
       </c>
     </row>
     <row r="272" spans="1:4">
-      <c r="A272" s="227"/>
+      <c r="A272" s="230"/>
       <c r="B272" s="16">
         <v>250774</v>
       </c>
@@ -24491,7 +24491,7 @@
       </c>
     </row>
     <row r="273" spans="1:4">
-      <c r="A273" s="227"/>
+      <c r="A273" s="230"/>
       <c r="B273" s="16">
         <v>250775</v>
       </c>
@@ -24503,20 +24503,20 @@
       </c>
     </row>
     <row r="274" spans="1:4">
-      <c r="A274" s="227"/>
+      <c r="A274" s="230"/>
       <c r="B274" s="16"/>
       <c r="C274" s="17"/>
       <c r="D274" s="15"/>
     </row>
     <row r="275" spans="1:4" ht="15" thickBot="1">
-      <c r="A275" s="228"/>
+      <c r="A275" s="231"/>
       <c r="B275" s="18"/>
       <c r="C275" s="19"/>
       <c r="D275" s="20"/>
     </row>
     <row r="276" spans="1:4" ht="15" thickBot="1"/>
     <row r="277" spans="1:4">
-      <c r="A277" s="226" t="s">
+      <c r="A277" s="229" t="s">
         <v>186</v>
       </c>
       <c r="B277" s="23">
@@ -24530,7 +24530,7 @@
       </c>
     </row>
     <row r="278" spans="1:4">
-      <c r="A278" s="227"/>
+      <c r="A278" s="230"/>
       <c r="B278" s="16">
         <v>239455</v>
       </c>
@@ -24542,7 +24542,7 @@
       </c>
     </row>
     <row r="279" spans="1:4">
-      <c r="A279" s="227"/>
+      <c r="A279" s="230"/>
       <c r="B279" s="16">
         <v>239475</v>
       </c>
@@ -24554,7 +24554,7 @@
       </c>
     </row>
     <row r="280" spans="1:4">
-      <c r="A280" s="227"/>
+      <c r="A280" s="230"/>
       <c r="B280" s="16">
         <v>258031</v>
       </c>
@@ -24566,13 +24566,13 @@
       </c>
     </row>
     <row r="281" spans="1:4">
-      <c r="A281" s="227"/>
+      <c r="A281" s="230"/>
       <c r="B281" s="16"/>
       <c r="C281" s="17"/>
       <c r="D281" s="15"/>
     </row>
     <row r="282" spans="1:4" ht="15" thickBot="1">
-      <c r="A282" s="228"/>
+      <c r="A282" s="231"/>
       <c r="B282" s="18"/>
       <c r="C282" s="19"/>
       <c r="D282" s="20"/>
@@ -24630,7 +24630,7 @@
     </row>
     <row r="292" spans="1:4" ht="15" hidden="1" thickBot="1"/>
     <row r="293" spans="1:4">
-      <c r="A293" s="226" t="s">
+      <c r="A293" s="229" t="s">
         <v>194</v>
       </c>
       <c r="B293" s="23">
@@ -24642,7 +24642,7 @@
       <c r="D293" s="12"/>
     </row>
     <row r="294" spans="1:4">
-      <c r="A294" s="227"/>
+      <c r="A294" s="230"/>
       <c r="B294" s="16">
         <v>239453</v>
       </c>
@@ -24652,7 +24652,7 @@
       <c r="D294" s="15"/>
     </row>
     <row r="295" spans="1:4">
-      <c r="A295" s="227"/>
+      <c r="A295" s="230"/>
       <c r="B295" s="16">
         <v>239470</v>
       </c>
@@ -24662,7 +24662,7 @@
       <c r="D295" s="15"/>
     </row>
     <row r="296" spans="1:4">
-      <c r="A296" s="227"/>
+      <c r="A296" s="230"/>
       <c r="B296" s="16">
         <v>239471</v>
       </c>
@@ -24672,7 +24672,7 @@
       <c r="D296" s="15"/>
     </row>
     <row r="297" spans="1:4">
-      <c r="A297" s="227"/>
+      <c r="A297" s="230"/>
       <c r="B297" s="16">
         <v>247579</v>
       </c>
@@ -24682,7 +24682,7 @@
       <c r="D297" s="15"/>
     </row>
     <row r="298" spans="1:4">
-      <c r="A298" s="227"/>
+      <c r="A298" s="230"/>
       <c r="B298" s="16">
         <v>254551</v>
       </c>
@@ -24692,7 +24692,7 @@
       <c r="D298" s="15"/>
     </row>
     <row r="299" spans="1:4">
-      <c r="A299" s="227"/>
+      <c r="A299" s="230"/>
       <c r="B299" s="16">
         <v>256362</v>
       </c>
@@ -24702,7 +24702,7 @@
       <c r="D299" s="15"/>
     </row>
     <row r="300" spans="1:4">
-      <c r="A300" s="227"/>
+      <c r="A300" s="230"/>
       <c r="B300" s="16">
         <v>239436</v>
       </c>
@@ -24712,20 +24712,20 @@
       <c r="D300" s="15"/>
     </row>
     <row r="301" spans="1:4">
-      <c r="A301" s="227"/>
+      <c r="A301" s="230"/>
       <c r="B301" s="16"/>
       <c r="C301" s="17"/>
       <c r="D301" s="15"/>
     </row>
     <row r="302" spans="1:4" ht="15" thickBot="1">
-      <c r="A302" s="228"/>
+      <c r="A302" s="231"/>
       <c r="B302" s="18"/>
       <c r="C302" s="19"/>
       <c r="D302" s="20"/>
     </row>
     <row r="303" spans="1:4" ht="15" thickBot="1"/>
     <row r="304" spans="1:4">
-      <c r="A304" s="226" t="s">
+      <c r="A304" s="229" t="s">
         <v>381</v>
       </c>
       <c r="B304" s="159" t="s">
@@ -24737,7 +24737,7 @@
       <c r="D304" s="12"/>
     </row>
     <row r="305" spans="1:4">
-      <c r="A305" s="227"/>
+      <c r="A305" s="230"/>
       <c r="B305" s="160" t="s">
         <v>412</v>
       </c>
@@ -24747,7 +24747,7 @@
       <c r="D305" s="15"/>
     </row>
     <row r="306" spans="1:4">
-      <c r="A306" s="227"/>
+      <c r="A306" s="230"/>
       <c r="B306" s="170" t="s">
         <v>425</v>
       </c>
@@ -24757,7 +24757,7 @@
       <c r="D306" s="15"/>
     </row>
     <row r="307" spans="1:4">
-      <c r="A307" s="227"/>
+      <c r="A307" s="230"/>
       <c r="B307" s="170" t="s">
         <v>426</v>
       </c>
@@ -24767,7 +24767,7 @@
       <c r="D307" s="15"/>
     </row>
     <row r="308" spans="1:4">
-      <c r="A308" s="227"/>
+      <c r="A308" s="230"/>
       <c r="B308" s="160" t="s">
         <v>414</v>
       </c>
@@ -24777,7 +24777,7 @@
       <c r="D308" s="15"/>
     </row>
     <row r="309" spans="1:4">
-      <c r="A309" s="227"/>
+      <c r="A309" s="230"/>
       <c r="B309" s="160" t="s">
         <v>413</v>
       </c>
@@ -24787,14 +24787,14 @@
       <c r="D309" s="15"/>
     </row>
     <row r="310" spans="1:4" ht="15" thickBot="1">
-      <c r="A310" s="228"/>
+      <c r="A310" s="231"/>
       <c r="B310" s="18"/>
       <c r="C310" s="19"/>
       <c r="D310" s="20"/>
     </row>
     <row r="311" spans="1:4" ht="15" thickBot="1"/>
     <row r="312" spans="1:4">
-      <c r="A312" s="226" t="s">
+      <c r="A312" s="229" t="s">
         <v>197</v>
       </c>
       <c r="B312" s="23">
@@ -24806,7 +24806,7 @@
       <c r="D312" s="12"/>
     </row>
     <row r="313" spans="1:4">
-      <c r="A313" s="227"/>
+      <c r="A313" s="230"/>
       <c r="B313" s="16">
         <v>239452</v>
       </c>
@@ -24816,7 +24816,7 @@
       <c r="D313" s="15"/>
     </row>
     <row r="314" spans="1:4">
-      <c r="A314" s="227"/>
+      <c r="A314" s="230"/>
       <c r="B314" s="16">
         <v>239453</v>
       </c>
@@ -24826,7 +24826,7 @@
       <c r="D314" s="15"/>
     </row>
     <row r="315" spans="1:4">
-      <c r="A315" s="227"/>
+      <c r="A315" s="230"/>
       <c r="B315" s="16">
         <v>239470</v>
       </c>
@@ -24836,7 +24836,7 @@
       <c r="D315" s="15"/>
     </row>
     <row r="316" spans="1:4">
-      <c r="A316" s="227"/>
+      <c r="A316" s="230"/>
       <c r="B316" s="16">
         <v>239471</v>
       </c>
@@ -24846,7 +24846,7 @@
       <c r="D316" s="15"/>
     </row>
     <row r="317" spans="1:4">
-      <c r="A317" s="227"/>
+      <c r="A317" s="230"/>
       <c r="B317" s="16">
         <v>247579</v>
       </c>
@@ -24856,7 +24856,7 @@
       <c r="D317" s="15"/>
     </row>
     <row r="318" spans="1:4">
-      <c r="A318" s="227"/>
+      <c r="A318" s="230"/>
       <c r="B318" s="16">
         <v>254551</v>
       </c>
@@ -24866,7 +24866,7 @@
       <c r="D318" s="15"/>
     </row>
     <row r="319" spans="1:4">
-      <c r="A319" s="227"/>
+      <c r="A319" s="230"/>
       <c r="B319" s="16">
         <v>256362</v>
       </c>
@@ -24876,7 +24876,7 @@
       <c r="D319" s="15"/>
     </row>
     <row r="320" spans="1:4">
-      <c r="A320" s="227"/>
+      <c r="A320" s="230"/>
       <c r="B320" s="16">
         <v>239436</v>
       </c>
@@ -24886,13 +24886,13 @@
       <c r="D320" s="15"/>
     </row>
     <row r="321" spans="1:5">
-      <c r="A321" s="227"/>
+      <c r="A321" s="230"/>
       <c r="B321" s="16"/>
       <c r="C321" s="17"/>
       <c r="D321" s="15"/>
     </row>
     <row r="322" spans="1:5" ht="15" thickBot="1">
-      <c r="A322" s="228"/>
+      <c r="A322" s="231"/>
       <c r="B322" s="18"/>
       <c r="C322" s="19"/>
       <c r="D322" s="20"/>
@@ -24901,7 +24901,7 @@
       <c r="A323" s="28"/>
     </row>
     <row r="324" spans="1:5">
-      <c r="A324" s="226" t="s">
+      <c r="A324" s="229" t="s">
         <v>233</v>
       </c>
       <c r="B324" s="39" t="s">
@@ -24913,13 +24913,13 @@
       <c r="D324" s="12"/>
     </row>
     <row r="325" spans="1:5">
-      <c r="A325" s="227"/>
+      <c r="A325" s="230"/>
       <c r="B325" s="16"/>
       <c r="C325" s="17"/>
       <c r="D325" s="15"/>
     </row>
     <row r="326" spans="1:5" ht="15" thickBot="1">
-      <c r="A326" s="228"/>
+      <c r="A326" s="231"/>
       <c r="B326" s="18"/>
       <c r="C326" s="19"/>
       <c r="D326" s="20"/>
@@ -24928,7 +24928,7 @@
       <c r="A327" s="28"/>
     </row>
     <row r="328" spans="1:5">
-      <c r="A328" s="226" t="s">
+      <c r="A328" s="229" t="s">
         <v>231</v>
       </c>
       <c r="B328" s="39" t="s">
@@ -24940,13 +24940,13 @@
       <c r="D328" s="12"/>
     </row>
     <row r="329" spans="1:5">
-      <c r="A329" s="227"/>
+      <c r="A329" s="230"/>
       <c r="B329" s="16"/>
       <c r="C329" s="17"/>
       <c r="D329" s="15"/>
     </row>
     <row r="330" spans="1:5" ht="15" thickBot="1">
-      <c r="A330" s="228"/>
+      <c r="A330" s="231"/>
       <c r="B330" s="18"/>
       <c r="C330" s="19"/>
       <c r="D330" s="20"/>
@@ -24955,7 +24955,7 @@
       <c r="A331" s="28"/>
     </row>
     <row r="332" spans="1:5">
-      <c r="A332" s="226" t="s">
+      <c r="A332" s="229" t="s">
         <v>199</v>
       </c>
       <c r="B332" s="39" t="s">
@@ -24967,13 +24967,13 @@
       <c r="D332" s="12"/>
     </row>
     <row r="333" spans="1:5">
-      <c r="A333" s="227"/>
+      <c r="A333" s="230"/>
       <c r="B333" s="16"/>
       <c r="C333" s="17"/>
       <c r="D333" s="15"/>
     </row>
     <row r="334" spans="1:5" ht="15" thickBot="1">
-      <c r="A334" s="228"/>
+      <c r="A334" s="231"/>
       <c r="B334" s="18"/>
       <c r="C334" s="19"/>
       <c r="D334" s="20"/>
@@ -24986,7 +24986,7 @@
       <c r="E335" s="36"/>
     </row>
     <row r="336" spans="1:5">
-      <c r="A336" s="226" t="s">
+      <c r="A336" s="229" t="s">
         <v>278</v>
       </c>
       <c r="B336" s="39" t="s">
@@ -24998,7 +24998,7 @@
       <c r="D336" s="12"/>
     </row>
     <row r="337" spans="1:4">
-      <c r="A337" s="227"/>
+      <c r="A337" s="230"/>
       <c r="B337" s="40" t="s">
         <v>362</v>
       </c>
@@ -25008,7 +25008,7 @@
       <c r="D337" s="15"/>
     </row>
     <row r="338" spans="1:4">
-      <c r="A338" s="227"/>
+      <c r="A338" s="230"/>
       <c r="B338" s="40" t="s">
         <v>353</v>
       </c>
@@ -25018,7 +25018,7 @@
       <c r="D338" s="15"/>
     </row>
     <row r="339" spans="1:4">
-      <c r="A339" s="227"/>
+      <c r="A339" s="230"/>
       <c r="B339" s="40" t="s">
         <v>363</v>
       </c>
@@ -25028,7 +25028,7 @@
       <c r="D339" s="15"/>
     </row>
     <row r="340" spans="1:4" ht="15" thickBot="1">
-      <c r="A340" s="228"/>
+      <c r="A340" s="231"/>
       <c r="B340" s="18"/>
       <c r="C340" s="19"/>
       <c r="D340" s="20"/>
@@ -25037,7 +25037,7 @@
       <c r="A341" s="28"/>
     </row>
     <row r="342" spans="1:4">
-      <c r="A342" s="226" t="s">
+      <c r="A342" s="229" t="s">
         <v>237</v>
       </c>
       <c r="B342" s="39" t="s">
@@ -25049,13 +25049,13 @@
       <c r="D342" s="12"/>
     </row>
     <row r="343" spans="1:4">
-      <c r="A343" s="227"/>
+      <c r="A343" s="230"/>
       <c r="B343" s="16"/>
       <c r="C343" s="17"/>
       <c r="D343" s="15"/>
     </row>
     <row r="344" spans="1:4" ht="15" thickBot="1">
-      <c r="A344" s="228"/>
+      <c r="A344" s="231"/>
       <c r="B344" s="18"/>
       <c r="C344" s="19"/>
       <c r="D344" s="20"/>
@@ -25064,7 +25064,7 @@
       <c r="A345" s="28"/>
     </row>
     <row r="346" spans="1:4">
-      <c r="A346" s="226" t="s">
+      <c r="A346" s="229" t="s">
         <v>201</v>
       </c>
       <c r="B346" s="39" t="s">
@@ -25076,7 +25076,7 @@
       <c r="D346" s="12"/>
     </row>
     <row r="347" spans="1:4">
-      <c r="A347" s="227"/>
+      <c r="A347" s="230"/>
       <c r="B347" s="40" t="s">
         <v>357</v>
       </c>
@@ -25086,7 +25086,7 @@
       <c r="D347" s="15"/>
     </row>
     <row r="348" spans="1:4">
-      <c r="A348" s="227"/>
+      <c r="A348" s="230"/>
       <c r="B348" s="40" t="s">
         <v>358</v>
       </c>
@@ -25096,20 +25096,20 @@
       <c r="D348" s="15"/>
     </row>
     <row r="349" spans="1:4">
-      <c r="A349" s="227"/>
+      <c r="A349" s="230"/>
       <c r="B349" s="16"/>
       <c r="C349" s="16"/>
       <c r="D349" s="15"/>
     </row>
     <row r="350" spans="1:4" ht="15" thickBot="1">
-      <c r="A350" s="228"/>
+      <c r="A350" s="231"/>
       <c r="B350" s="18"/>
       <c r="C350" s="19"/>
       <c r="D350" s="20"/>
     </row>
     <row r="351" spans="1:4" ht="15" thickBot="1"/>
     <row r="352" spans="1:4">
-      <c r="A352" s="226" t="s">
+      <c r="A352" s="229" t="s">
         <v>203</v>
       </c>
       <c r="B352" s="23">
@@ -25121,7 +25121,7 @@
       <c r="D352" s="12"/>
     </row>
     <row r="353" spans="1:4">
-      <c r="A353" s="227"/>
+      <c r="A353" s="230"/>
       <c r="B353" s="16">
         <v>251036</v>
       </c>
@@ -25131,7 +25131,7 @@
       <c r="D353" s="15"/>
     </row>
     <row r="354" spans="1:4">
-      <c r="A354" s="227"/>
+      <c r="A354" s="230"/>
       <c r="B354" s="16">
         <v>251037</v>
       </c>
@@ -25141,7 +25141,7 @@
       <c r="D354" s="15"/>
     </row>
     <row r="355" spans="1:4">
-      <c r="A355" s="227"/>
+      <c r="A355" s="230"/>
       <c r="B355" s="16">
         <v>279076</v>
       </c>
@@ -25151,7 +25151,7 @@
       <c r="D355" s="15"/>
     </row>
     <row r="356" spans="1:4">
-      <c r="A356" s="227"/>
+      <c r="A356" s="230"/>
       <c r="B356" s="16">
         <v>256362</v>
       </c>
@@ -25161,7 +25161,7 @@
       <c r="D356" s="15"/>
     </row>
     <row r="357" spans="1:4">
-      <c r="A357" s="227"/>
+      <c r="A357" s="230"/>
       <c r="B357" s="31">
         <v>247579</v>
       </c>
@@ -25171,7 +25171,7 @@
       <c r="D357" s="15"/>
     </row>
     <row r="358" spans="1:4">
-      <c r="A358" s="227"/>
+      <c r="A358" s="230"/>
       <c r="B358" s="31">
         <v>254551</v>
       </c>
@@ -25181,13 +25181,13 @@
       <c r="D358" s="33"/>
     </row>
     <row r="359" spans="1:4">
-      <c r="A359" s="227"/>
+      <c r="A359" s="230"/>
       <c r="B359" s="31"/>
       <c r="C359" s="32"/>
       <c r="D359" s="33"/>
     </row>
     <row r="360" spans="1:4" ht="15" thickBot="1">
-      <c r="A360" s="228"/>
+      <c r="A360" s="231"/>
       <c r="B360" s="18"/>
       <c r="C360" s="19"/>
       <c r="D360" s="20"/>
@@ -25196,7 +25196,7 @@
       <c r="A361" s="28"/>
     </row>
     <row r="362" spans="1:4">
-      <c r="A362" s="226" t="s">
+      <c r="A362" s="229" t="s">
         <v>235</v>
       </c>
       <c r="B362" s="39" t="s">
@@ -25208,7 +25208,7 @@
       <c r="D362" s="12"/>
     </row>
     <row r="363" spans="1:4">
-      <c r="A363" s="227"/>
+      <c r="A363" s="230"/>
       <c r="B363" s="40" t="s">
         <v>360</v>
       </c>
@@ -25218,7 +25218,7 @@
       <c r="D363" s="15"/>
     </row>
     <row r="364" spans="1:4" ht="15" thickBot="1">
-      <c r="A364" s="228"/>
+      <c r="A364" s="231"/>
       <c r="B364" s="18"/>
       <c r="C364" s="19"/>
       <c r="D364" s="20"/>
@@ -25227,7 +25227,7 @@
       <c r="A365" s="28"/>
     </row>
     <row r="366" spans="1:4">
-      <c r="A366" s="226" t="s">
+      <c r="A366" s="229" t="s">
         <v>239</v>
       </c>
       <c r="B366" s="37" t="s">
@@ -25239,7 +25239,7 @@
       <c r="D366" s="12"/>
     </row>
     <row r="367" spans="1:4">
-      <c r="A367" s="227"/>
+      <c r="A367" s="230"/>
       <c r="B367" s="38" t="s">
         <v>331</v>
       </c>
@@ -25249,7 +25249,7 @@
       <c r="D367" s="15"/>
     </row>
     <row r="368" spans="1:4" ht="15" thickBot="1">
-      <c r="A368" s="228"/>
+      <c r="A368" s="231"/>
       <c r="B368" s="18"/>
       <c r="C368" s="19"/>
       <c r="D368" s="20"/>
@@ -25258,7 +25258,7 @@
       <c r="A369" s="28"/>
     </row>
     <row r="370" spans="1:4">
-      <c r="A370" s="226" t="s">
+      <c r="A370" s="229" t="s">
         <v>241</v>
       </c>
       <c r="B370" s="39" t="s">
@@ -25270,7 +25270,7 @@
       <c r="D370" s="12"/>
     </row>
     <row r="371" spans="1:4">
-      <c r="A371" s="227"/>
+      <c r="A371" s="230"/>
       <c r="B371" s="40" t="s">
         <v>333</v>
       </c>
@@ -25280,7 +25280,7 @@
       <c r="D371" s="15"/>
     </row>
     <row r="372" spans="1:4" ht="15" thickBot="1">
-      <c r="A372" s="228"/>
+      <c r="A372" s="231"/>
       <c r="B372" s="41" t="s">
         <v>334</v>
       </c>
@@ -25293,7 +25293,7 @@
       <c r="A373" s="28"/>
     </row>
     <row r="374" spans="1:4">
-      <c r="A374" s="226" t="s">
+      <c r="A374" s="229" t="s">
         <v>242</v>
       </c>
       <c r="B374" s="39" t="s">
@@ -25305,7 +25305,7 @@
       <c r="D374" s="12"/>
     </row>
     <row r="375" spans="1:4">
-      <c r="A375" s="227"/>
+      <c r="A375" s="230"/>
       <c r="B375" s="40" t="s">
         <v>333</v>
       </c>
@@ -25315,7 +25315,7 @@
       <c r="D375" s="15"/>
     </row>
     <row r="376" spans="1:4" ht="15" thickBot="1">
-      <c r="A376" s="228"/>
+      <c r="A376" s="231"/>
       <c r="B376" s="41" t="s">
         <v>334</v>
       </c>
@@ -25326,7 +25326,7 @@
     </row>
     <row r="377" spans="1:4" ht="15" thickBot="1"/>
     <row r="378" spans="1:4">
-      <c r="A378" s="226" t="s">
+      <c r="A378" s="229" t="s">
         <v>208</v>
       </c>
       <c r="B378" s="23">
@@ -25338,7 +25338,7 @@
       <c r="D378" s="12"/>
     </row>
     <row r="379" spans="1:4">
-      <c r="A379" s="227"/>
+      <c r="A379" s="230"/>
       <c r="B379" s="16">
         <v>257282</v>
       </c>
@@ -25348,7 +25348,7 @@
       <c r="D379" s="15"/>
     </row>
     <row r="380" spans="1:4">
-      <c r="A380" s="227"/>
+      <c r="A380" s="230"/>
       <c r="B380" s="16">
         <v>257300</v>
       </c>
@@ -25358,7 +25358,7 @@
       <c r="D380" s="15"/>
     </row>
     <row r="381" spans="1:4">
-      <c r="A381" s="227"/>
+      <c r="A381" s="230"/>
       <c r="B381" s="16">
         <v>273321</v>
       </c>
@@ -25368,7 +25368,7 @@
       <c r="D381" s="15"/>
     </row>
     <row r="382" spans="1:4">
-      <c r="A382" s="227"/>
+      <c r="A382" s="230"/>
       <c r="B382" s="31">
         <v>237323</v>
       </c>
@@ -25378,7 +25378,7 @@
       <c r="D382" s="33"/>
     </row>
     <row r="383" spans="1:4">
-      <c r="A383" s="227"/>
+      <c r="A383" s="230"/>
       <c r="B383" s="31">
         <v>247579</v>
       </c>
@@ -25388,7 +25388,7 @@
       <c r="D383" s="33"/>
     </row>
     <row r="384" spans="1:4">
-      <c r="A384" s="227"/>
+      <c r="A384" s="230"/>
       <c r="B384" s="31">
         <v>254551</v>
       </c>
@@ -25398,7 +25398,7 @@
       <c r="D384" s="33"/>
     </row>
     <row r="385" spans="1:4" ht="15" thickBot="1">
-      <c r="A385" s="228"/>
+      <c r="A385" s="231"/>
       <c r="B385" s="18"/>
       <c r="C385" s="19"/>
       <c r="D385" s="20"/>
@@ -25407,7 +25407,7 @@
       <c r="A386" s="28"/>
     </row>
     <row r="387" spans="1:4">
-      <c r="A387" s="226" t="s">
+      <c r="A387" s="229" t="s">
         <v>244</v>
       </c>
       <c r="B387" s="39" t="s">
@@ -25419,7 +25419,7 @@
       <c r="D387" s="12"/>
     </row>
     <row r="388" spans="1:4">
-      <c r="A388" s="227"/>
+      <c r="A388" s="230"/>
       <c r="B388" s="40" t="s">
         <v>355</v>
       </c>
@@ -25429,14 +25429,14 @@
       <c r="D388" s="15"/>
     </row>
     <row r="389" spans="1:4" ht="15" thickBot="1">
-      <c r="A389" s="228"/>
+      <c r="A389" s="231"/>
       <c r="B389" s="18"/>
       <c r="C389" s="19"/>
       <c r="D389" s="20"/>
     </row>
     <row r="390" spans="1:4" ht="15" thickBot="1"/>
     <row r="391" spans="1:4">
-      <c r="A391" s="226" t="s">
+      <c r="A391" s="229" t="s">
         <v>211</v>
       </c>
       <c r="B391" s="39" t="s">
@@ -25448,7 +25448,7 @@
       <c r="D391" s="12"/>
     </row>
     <row r="392" spans="1:4">
-      <c r="A392" s="227"/>
+      <c r="A392" s="230"/>
       <c r="B392" s="40" t="s">
         <v>339</v>
       </c>
@@ -25458,7 +25458,7 @@
       <c r="D392" s="15"/>
     </row>
     <row r="393" spans="1:4">
-      <c r="A393" s="227"/>
+      <c r="A393" s="230"/>
       <c r="B393" s="40" t="s">
         <v>340</v>
       </c>
@@ -25468,7 +25468,7 @@
       <c r="D393" s="15"/>
     </row>
     <row r="394" spans="1:4">
-      <c r="A394" s="227"/>
+      <c r="A394" s="230"/>
       <c r="B394" s="40" t="s">
         <v>354</v>
       </c>
@@ -25478,20 +25478,20 @@
       <c r="D394" s="15"/>
     </row>
     <row r="395" spans="1:4">
-      <c r="A395" s="227"/>
+      <c r="A395" s="230"/>
       <c r="B395" s="16"/>
       <c r="C395" s="17"/>
       <c r="D395" s="15"/>
     </row>
     <row r="396" spans="1:4" ht="15" thickBot="1">
-      <c r="A396" s="228"/>
+      <c r="A396" s="231"/>
       <c r="B396" s="18"/>
       <c r="C396" s="19"/>
       <c r="D396" s="20"/>
     </row>
     <row r="397" spans="1:4" ht="15" thickBot="1"/>
     <row r="398" spans="1:4">
-      <c r="A398" s="226" t="s">
+      <c r="A398" s="229" t="s">
         <v>216</v>
       </c>
       <c r="B398" s="39" t="s">
@@ -25503,7 +25503,7 @@
       <c r="D398" s="12"/>
     </row>
     <row r="399" spans="1:4">
-      <c r="A399" s="227"/>
+      <c r="A399" s="230"/>
       <c r="B399" s="40" t="s">
         <v>342</v>
       </c>
@@ -25513,13 +25513,13 @@
       <c r="D399" s="15"/>
     </row>
     <row r="400" spans="1:4">
-      <c r="A400" s="227"/>
+      <c r="A400" s="230"/>
       <c r="B400" s="16"/>
       <c r="C400" s="17"/>
       <c r="D400" s="15"/>
     </row>
     <row r="401" spans="1:4" ht="15" thickBot="1">
-      <c r="A401" s="228"/>
+      <c r="A401" s="231"/>
       <c r="B401" s="18"/>
       <c r="C401" s="19"/>
       <c r="D401" s="20"/>
@@ -25528,7 +25528,7 @@
       <c r="A402" s="28"/>
     </row>
     <row r="403" spans="1:4">
-      <c r="A403" s="226" t="s">
+      <c r="A403" s="229" t="s">
         <v>246</v>
       </c>
       <c r="B403" s="39" t="s">
@@ -25540,13 +25540,13 @@
       <c r="D403" s="12"/>
     </row>
     <row r="404" spans="1:4">
-      <c r="A404" s="227"/>
+      <c r="A404" s="230"/>
       <c r="B404" s="16"/>
       <c r="C404" s="17"/>
       <c r="D404" s="15"/>
     </row>
     <row r="405" spans="1:4" ht="15" thickBot="1">
-      <c r="A405" s="228"/>
+      <c r="A405" s="231"/>
       <c r="B405" s="18"/>
       <c r="C405" s="19"/>
       <c r="D405" s="20"/>
@@ -25567,7 +25567,7 @@
     </row>
     <row r="409" spans="1:4" ht="15" hidden="1" thickBot="1"/>
     <row r="410" spans="1:4">
-      <c r="A410" s="229" t="s">
+      <c r="A410" s="226" t="s">
         <v>222</v>
       </c>
       <c r="B410" s="39" t="s">
@@ -25579,7 +25579,7 @@
       <c r="D410" s="12"/>
     </row>
     <row r="411" spans="1:4">
-      <c r="A411" s="230"/>
+      <c r="A411" s="227"/>
       <c r="B411" s="40" t="s">
         <v>345</v>
       </c>
@@ -25589,7 +25589,7 @@
       <c r="D411" s="15"/>
     </row>
     <row r="412" spans="1:4">
-      <c r="A412" s="230"/>
+      <c r="A412" s="227"/>
       <c r="B412" s="40" t="s">
         <v>346</v>
       </c>
@@ -25599,7 +25599,7 @@
       <c r="D412" s="15"/>
     </row>
     <row r="413" spans="1:4">
-      <c r="A413" s="230"/>
+      <c r="A413" s="227"/>
       <c r="B413" s="40" t="s">
         <v>347</v>
       </c>
@@ -25609,20 +25609,20 @@
       <c r="D413" s="15"/>
     </row>
     <row r="414" spans="1:4">
-      <c r="A414" s="230"/>
+      <c r="A414" s="227"/>
       <c r="B414" s="16"/>
       <c r="C414" s="17"/>
       <c r="D414" s="15"/>
     </row>
     <row r="415" spans="1:4" ht="15" thickBot="1">
-      <c r="A415" s="231"/>
+      <c r="A415" s="228"/>
       <c r="B415" s="18"/>
       <c r="C415" s="19"/>
       <c r="D415" s="20"/>
     </row>
     <row r="416" spans="1:4" ht="15" thickBot="1"/>
     <row r="417" spans="1:4">
-      <c r="A417" s="226" t="s">
+      <c r="A417" s="229" t="s">
         <v>227</v>
       </c>
       <c r="B417" s="39" t="s">
@@ -25634,7 +25634,7 @@
       <c r="D417" s="12"/>
     </row>
     <row r="418" spans="1:4">
-      <c r="A418" s="227"/>
+      <c r="A418" s="230"/>
       <c r="B418" s="40" t="s">
         <v>349</v>
       </c>
@@ -25644,20 +25644,20 @@
       <c r="D418" s="15"/>
     </row>
     <row r="419" spans="1:4">
-      <c r="A419" s="227"/>
+      <c r="A419" s="230"/>
       <c r="B419" s="16"/>
       <c r="C419" s="17"/>
       <c r="D419" s="15"/>
     </row>
     <row r="420" spans="1:4" ht="15" thickBot="1">
-      <c r="A420" s="228"/>
+      <c r="A420" s="231"/>
       <c r="B420" s="18"/>
       <c r="C420" s="19"/>
       <c r="D420" s="20"/>
     </row>
     <row r="421" spans="1:4" ht="15" thickBot="1"/>
     <row r="422" spans="1:4">
-      <c r="A422" s="226" t="s">
+      <c r="A422" s="229" t="s">
         <v>238</v>
       </c>
       <c r="B422" s="39" t="s">
@@ -25669,7 +25669,7 @@
       <c r="D422" s="12"/>
     </row>
     <row r="423" spans="1:4">
-      <c r="A423" s="227"/>
+      <c r="A423" s="230"/>
       <c r="B423" s="40" t="s">
         <v>351</v>
       </c>
@@ -25679,20 +25679,20 @@
       <c r="D423" s="15"/>
     </row>
     <row r="424" spans="1:4">
-      <c r="A424" s="227"/>
+      <c r="A424" s="230"/>
       <c r="B424" s="16"/>
       <c r="C424" s="17"/>
       <c r="D424" s="15"/>
     </row>
     <row r="425" spans="1:4" ht="15" thickBot="1">
-      <c r="A425" s="228"/>
+      <c r="A425" s="231"/>
       <c r="B425" s="18"/>
       <c r="C425" s="19"/>
       <c r="D425" s="20"/>
     </row>
     <row r="426" spans="1:4" ht="15" thickBot="1"/>
     <row r="427" spans="1:4">
-      <c r="A427" s="226" t="s">
+      <c r="A427" s="229" t="s">
         <v>228</v>
       </c>
       <c r="B427" s="39" t="s">
@@ -25704,7 +25704,7 @@
       <c r="D427" s="12"/>
     </row>
     <row r="428" spans="1:4">
-      <c r="A428" s="227"/>
+      <c r="A428" s="230"/>
       <c r="B428" s="40" t="s">
         <v>353</v>
       </c>
@@ -25714,20 +25714,20 @@
       <c r="D428" s="15"/>
     </row>
     <row r="429" spans="1:4">
-      <c r="A429" s="227"/>
+      <c r="A429" s="230"/>
       <c r="B429" s="16"/>
       <c r="C429" s="17"/>
       <c r="D429" s="15"/>
     </row>
     <row r="430" spans="1:4" ht="15" thickBot="1">
-      <c r="A430" s="228"/>
+      <c r="A430" s="231"/>
       <c r="B430" s="18"/>
       <c r="C430" s="19"/>
       <c r="D430" s="20"/>
     </row>
     <row r="431" spans="1:4" ht="15" thickBot="1"/>
     <row r="432" spans="1:4">
-      <c r="A432" s="226" t="s">
+      <c r="A432" s="229" t="s">
         <v>310</v>
       </c>
       <c r="B432" s="23">
@@ -25739,7 +25739,7 @@
       <c r="D432" s="12"/>
     </row>
     <row r="433" spans="1:4">
-      <c r="A433" s="227"/>
+      <c r="A433" s="230"/>
       <c r="B433" s="16">
         <v>271274</v>
       </c>
@@ -25749,20 +25749,20 @@
       <c r="D433" s="15"/>
     </row>
     <row r="434" spans="1:4">
-      <c r="A434" s="227"/>
+      <c r="A434" s="230"/>
       <c r="B434" s="16"/>
       <c r="C434" s="17"/>
       <c r="D434" s="15"/>
     </row>
     <row r="435" spans="1:4" ht="15" thickBot="1">
-      <c r="A435" s="228"/>
+      <c r="A435" s="231"/>
       <c r="B435" s="18"/>
       <c r="C435" s="19"/>
       <c r="D435" s="20"/>
     </row>
     <row r="436" spans="1:4" ht="15" thickBot="1"/>
     <row r="437" spans="1:4">
-      <c r="A437" s="226" t="s">
+      <c r="A437" s="229" t="s">
         <v>312</v>
       </c>
       <c r="B437" s="23">
@@ -25774,7 +25774,7 @@
       <c r="D437" s="12"/>
     </row>
     <row r="438" spans="1:4">
-      <c r="A438" s="227"/>
+      <c r="A438" s="230"/>
       <c r="B438" s="16">
         <v>275445</v>
       </c>
@@ -25784,7 +25784,7 @@
       <c r="D438" s="15"/>
     </row>
     <row r="439" spans="1:4">
-      <c r="A439" s="227"/>
+      <c r="A439" s="230"/>
       <c r="B439" s="16">
         <v>271229</v>
       </c>
@@ -25794,7 +25794,7 @@
       <c r="D439" s="15"/>
     </row>
     <row r="440" spans="1:4">
-      <c r="A440" s="227"/>
+      <c r="A440" s="230"/>
       <c r="B440" s="16">
         <v>275345</v>
       </c>
@@ -25804,7 +25804,7 @@
       <c r="D440" s="15"/>
     </row>
     <row r="441" spans="1:4">
-      <c r="A441" s="227"/>
+      <c r="A441" s="230"/>
       <c r="B441" s="16">
         <v>277822</v>
       </c>
@@ -25814,13 +25814,13 @@
       <c r="D441" s="15"/>
     </row>
     <row r="442" spans="1:4">
-      <c r="A442" s="227"/>
+      <c r="A442" s="230"/>
       <c r="B442" s="16"/>
       <c r="C442" s="17"/>
       <c r="D442" s="15"/>
     </row>
     <row r="443" spans="1:4" ht="15" thickBot="1">
-      <c r="A443" s="228"/>
+      <c r="A443" s="231"/>
       <c r="B443" s="18"/>
       <c r="C443" s="19"/>
       <c r="D443" s="20"/>
@@ -25831,42 +25831,6 @@
   </sheetData>
   <autoFilter ref="A1:I1" xr:uid="{8A8BE109-EC1A-4FFE-93A3-03C45FFF4C14}"/>
   <mergeCells count="52">
-    <mergeCell ref="A199:A204"/>
-    <mergeCell ref="A206:A212"/>
-    <mergeCell ref="A214:A218"/>
-    <mergeCell ref="A220:A227"/>
-    <mergeCell ref="A277:A282"/>
-    <mergeCell ref="A229:A233"/>
-    <mergeCell ref="A235:A238"/>
-    <mergeCell ref="A240:A247"/>
-    <mergeCell ref="A249:A262"/>
-    <mergeCell ref="A264:A268"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="A108:A115"/>
-    <mergeCell ref="A117:A126"/>
-    <mergeCell ref="A155:A164"/>
-    <mergeCell ref="A192:A197"/>
-    <mergeCell ref="A68:A73"/>
-    <mergeCell ref="A75:A81"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A1:A6"/>
-    <mergeCell ref="A9:A17"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A41:A58"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A366:A368"/>
-    <mergeCell ref="A370:A372"/>
-    <mergeCell ref="A270:A275"/>
-    <mergeCell ref="A293:A302"/>
-    <mergeCell ref="A304:A310"/>
-    <mergeCell ref="A312:A322"/>
-    <mergeCell ref="A324:A326"/>
-    <mergeCell ref="A328:A330"/>
-    <mergeCell ref="A332:A334"/>
-    <mergeCell ref="A342:A344"/>
     <mergeCell ref="A432:A435"/>
     <mergeCell ref="A437:A443"/>
     <mergeCell ref="A336:A340"/>
@@ -25883,6 +25847,42 @@
     <mergeCell ref="A346:A350"/>
     <mergeCell ref="A352:A360"/>
     <mergeCell ref="A362:A364"/>
+    <mergeCell ref="A366:A368"/>
+    <mergeCell ref="A370:A372"/>
+    <mergeCell ref="A270:A275"/>
+    <mergeCell ref="A293:A302"/>
+    <mergeCell ref="A304:A310"/>
+    <mergeCell ref="A312:A322"/>
+    <mergeCell ref="A324:A326"/>
+    <mergeCell ref="A328:A330"/>
+    <mergeCell ref="A332:A334"/>
+    <mergeCell ref="A342:A344"/>
+    <mergeCell ref="A1:A6"/>
+    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A41:A58"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="A108:A115"/>
+    <mergeCell ref="A117:A126"/>
+    <mergeCell ref="A155:A164"/>
+    <mergeCell ref="A192:A197"/>
+    <mergeCell ref="A199:A204"/>
+    <mergeCell ref="A206:A212"/>
+    <mergeCell ref="A214:A218"/>
+    <mergeCell ref="A220:A227"/>
+    <mergeCell ref="A277:A282"/>
+    <mergeCell ref="A229:A233"/>
+    <mergeCell ref="A235:A238"/>
+    <mergeCell ref="A240:A247"/>
+    <mergeCell ref="A249:A262"/>
+    <mergeCell ref="A264:A268"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
